--- a/FitnessData/dynamic10/pso/analysis_1s.xlsx
+++ b/FitnessData/dynamic10/pso/analysis_1s.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>159.26</v>
+        <v>168.48</v>
       </c>
       <c r="B2" t="n">
-        <v>161.27</v>
+        <v>160.47</v>
       </c>
       <c r="C2" t="n">
-        <v>162.12</v>
+        <v>153.46</v>
       </c>
       <c r="D2" t="n">
-        <v>175.47</v>
+        <v>158.8</v>
       </c>
       <c r="E2" t="n">
-        <v>166.51</v>
+        <v>170.89</v>
       </c>
       <c r="F2" t="n">
-        <v>160.5</v>
+        <v>163.22</v>
       </c>
       <c r="G2" t="n">
-        <v>167.19</v>
+        <v>159.77</v>
       </c>
       <c r="H2" t="n">
-        <v>158.65</v>
+        <v>157.35</v>
       </c>
       <c r="I2" t="n">
-        <v>161.07</v>
+        <v>152.83</v>
       </c>
       <c r="J2" t="n">
-        <v>162.88</v>
+        <v>156.68</v>
       </c>
       <c r="K2" t="n">
-        <v>162.23</v>
+        <v>157.93</v>
       </c>
       <c r="L2" t="n">
-        <v>176.15</v>
+        <v>144.98</v>
       </c>
       <c r="M2" t="n">
-        <v>159.14</v>
+        <v>157.29</v>
       </c>
       <c r="N2" t="n">
-        <v>161.81</v>
+        <v>150.4</v>
       </c>
       <c r="O2" t="n">
-        <v>175.36</v>
+        <v>160.39</v>
       </c>
       <c r="P2" t="n">
-        <v>170.52</v>
+        <v>157.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>156.76</v>
+        <v>150.48</v>
       </c>
       <c r="R2" t="n">
-        <v>158.42</v>
+        <v>152.84</v>
       </c>
       <c r="S2" t="n">
-        <v>154.87</v>
+        <v>150.02</v>
       </c>
       <c r="T2" t="n">
-        <v>158.85</v>
+        <v>158.95</v>
       </c>
       <c r="U2" t="n">
-        <v>154.87</v>
+        <v>144.98</v>
       </c>
       <c r="V2" t="n">
-        <v>163.4515</v>
+        <v>157.1535</v>
       </c>
       <c r="W2" t="n">
-        <v>6.367480105562709</v>
+        <v>6.196624102134796</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>354.08</v>
+        <v>313.7</v>
       </c>
       <c r="B3" t="n">
-        <v>321.22</v>
+        <v>301.56</v>
       </c>
       <c r="C3" t="n">
-        <v>351.34</v>
+        <v>322.04</v>
       </c>
       <c r="D3" t="n">
-        <v>368.04</v>
+        <v>332.4</v>
       </c>
       <c r="E3" t="n">
-        <v>320.92</v>
+        <v>333.22</v>
       </c>
       <c r="F3" t="n">
-        <v>326.9</v>
+        <v>368.36</v>
       </c>
       <c r="G3" t="n">
-        <v>344.12</v>
+        <v>332.66</v>
       </c>
       <c r="H3" t="n">
-        <v>332.9</v>
+        <v>351.02</v>
       </c>
       <c r="I3" t="n">
-        <v>398.62</v>
+        <v>312.44</v>
       </c>
       <c r="J3" t="n">
-        <v>326.82</v>
+        <v>330.12</v>
       </c>
       <c r="K3" t="n">
-        <v>345.96</v>
+        <v>357.56</v>
       </c>
       <c r="L3" t="n">
-        <v>348.22</v>
+        <v>330.86</v>
       </c>
       <c r="M3" t="n">
-        <v>362.58</v>
+        <v>316.52</v>
       </c>
       <c r="N3" t="n">
-        <v>354.64</v>
+        <v>332.54</v>
       </c>
       <c r="O3" t="n">
-        <v>353.84</v>
+        <v>339.98</v>
       </c>
       <c r="P3" t="n">
-        <v>350.48</v>
+        <v>322.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>341.94</v>
+        <v>326.92</v>
       </c>
       <c r="R3" t="n">
-        <v>336.1</v>
+        <v>330.38</v>
       </c>
       <c r="S3" t="n">
-        <v>375.08</v>
+        <v>353.02</v>
       </c>
       <c r="T3" t="n">
-        <v>310.48</v>
+        <v>326.8</v>
       </c>
       <c r="U3" t="n">
-        <v>310.48</v>
+        <v>301.56</v>
       </c>
       <c r="V3" t="n">
-        <v>346.2140000000001</v>
+        <v>331.71</v>
       </c>
       <c r="W3" t="n">
-        <v>20.71894134665948</v>
+        <v>16.19707900891555</v>
       </c>
     </row>
   </sheetData>
